--- a/LR7/compare.xlsx
+++ b/LR7/compare.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\PycharmProjects\algoritmMultimedia\lab_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagal\GitHub\Multimedia_processing\LR7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4484168-A6CF-4780-BC4D-0569D6A8222A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C0C77B-7750-45B9-8D1C-C2D1B2FF564F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>task1</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>есть ли слово в строке</t>
+  </si>
+  <si>
+    <t>task3</t>
   </si>
 </sst>
 </file>
@@ -372,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,10 +431,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>0.64259999999999995</v>
+        <v>0.68289999999999995</v>
       </c>
       <c r="C6" s="2">
-        <v>0.74360000000000004</v>
+        <v>0.79269999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -439,10 +442,37 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>7.3200000000000001E-2</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>8.9399999999999993E-2</v>
+        <v>8.1299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.68289999999999995</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.68289999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.1299999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/LR7/compare.xlsx
+++ b/LR7/compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagal\GitHub\Multimedia_processing\LR7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C0C77B-7750-45B9-8D1C-C2D1B2FF564F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1212F31A-7BD3-4B09-AB2A-638AFCB1A57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>task1</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>task3</t>
+  </si>
+  <si>
+    <t>task4</t>
+  </si>
+  <si>
+    <t>постобработка</t>
   </si>
 </sst>
 </file>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,6 +481,32 @@
         <v>8.1299999999999997E-2</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9.7900000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/LR7/compare.xlsx
+++ b/LR7/compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagal\GitHub\Multimedia_processing\LR7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1212F31A-7BD3-4B09-AB2A-638AFCB1A57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D6DB5-9F2D-4FD1-8A91-31DDE0B0D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5736" yWindow="660" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>task2</t>
   </si>
   <si>
-    <t xml:space="preserve">побуквенное </t>
-  </si>
-  <si>
     <t>есть ли слово в строке</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>постобработка</t>
+  </si>
+  <si>
+    <t>Дословное</t>
   </si>
 </sst>
 </file>
@@ -383,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,10 +399,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -410,10 +410,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0.18179999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>0.68289999999999995</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="C6" s="2">
-        <v>0.79269999999999996</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -448,15 +448,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>7.7200000000000005E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>8.1299999999999997E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,10 +464,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>0.68289999999999995</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>0.68289999999999995</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,20 +475,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>7.7200000000000005E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>8.1299999999999997E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2">
-        <v>9.7900000000000001E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/LR7/compare.xlsx
+++ b/LR7/compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagal\GitHub\Multimedia_processing\LR7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D6DB5-9F2D-4FD1-8A91-31DDE0B0D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4253C8-5534-47A0-A2F4-3E77D452F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="660" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4296" yWindow="1584" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>task1</t>
-  </si>
-  <si>
-    <t>easyocr</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>task2</t>
-  </si>
-  <si>
-    <t>есть ли слово в строке</t>
-  </si>
-  <si>
-    <t>task3</t>
-  </si>
-  <si>
-    <t>task4</t>
-  </si>
-  <si>
-    <t>постобработка</t>
-  </si>
-  <si>
-    <t>Дословное</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+  <si>
+    <t>easy_osr</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>trained</t>
+  </si>
+  <si>
+    <t>71.97</t>
+  </si>
+  <si>
+    <t>tesseract_OSR</t>
+  </si>
+  <si>
+    <t>11,55</t>
+  </si>
+  <si>
+    <t>27.53</t>
+  </si>
+  <si>
+    <t>38.29</t>
   </si>
 </sst>
 </file>
@@ -94,13 +97,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -381,131 +386,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.18179999999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.18179999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>198</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.18179999999999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.3300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3.3300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
-        <v>6.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3.0599999999999999E-2</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>183</v>
+      </c>
+      <c r="B8">
+        <v>193</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
